--- a/SupportingDocs/ICA_Prep_Values.xlsx
+++ b/SupportingDocs/ICA_Prep_Values.xlsx
@@ -13,7 +13,247 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
   <si>
     <t>SUBID</t>
   </si>
@@ -48,7 +288,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -57,13 +297,45 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -76,29 +348,29 @@
   <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="true"/>
-    <col min="2" max="2" width="12.28515625" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="10.28515625" customWidth="true"/>
+    <col min="1" max="1" width="6.2578125" customWidth="true"/>
+    <col min="2" max="2" width="11.44140625" customWidth="true"/>
+    <col min="3" max="3" width="12.8046875" customWidth="true"/>
+    <col min="4" max="4" width="9.44140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="B2" s="0">
         <v>500</v>

--- a/SupportingDocs/ICA_Prep_Values.xlsx
+++ b/SupportingDocs/ICA_Prep_Values.xlsx
@@ -13,7 +13,382 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
   <si>
     <t>SUBID</t>
   </si>
@@ -288,7 +663,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -313,11 +688,36 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -336,6 +736,31 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,29 +773,29 @@
   <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.2578125" customWidth="true"/>
-    <col min="2" max="2" width="11.44140625" customWidth="true"/>
-    <col min="3" max="3" width="12.8046875" customWidth="true"/>
-    <col min="4" max="4" width="9.44140625" customWidth="true"/>
+    <col min="1" max="1" width="6.42578125" customWidth="true"/>
+    <col min="2" max="2" width="12.28515625" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="B2" s="0">
         <v>500</v>

--- a/SupportingDocs/ICA_Prep_Values.xlsx
+++ b/SupportingDocs/ICA_Prep_Values.xlsx
@@ -13,7 +13,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
   <si>
     <t>SUBID</t>
   </si>
@@ -663,7 +798,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -713,11 +848,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -761,6 +905,15 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,21 +934,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="B2" s="0">
         <v>500</v>

--- a/SupportingDocs/ICA_Prep_Values.xlsx
+++ b/SupportingDocs/ICA_Prep_Values.xlsx
@@ -13,7 +13,292 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>AmpthValue</t>
+  </si>
+  <si>
+    <t>WindowValue</t>
+  </si>
+  <si>
+    <t>StepValue</t>
+  </si>
   <si>
     <t>SUBID</t>
   </si>
@@ -798,7 +1083,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -857,11 +1142,30 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -914,6 +1218,25 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,21 +1257,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>250</v>
+        <v>345</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>252</v>
+        <v>347</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>254</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>251</v>
+        <v>346</v>
       </c>
       <c r="B2" s="0">
         <v>500</v>
